--- a/Results/comparison_different_version.xlsx
+++ b/Results/comparison_different_version.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Next++\4E\Wanying\4EBaseMetal\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC501A-F363-4D98-AECA-38C9BF567A20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946E213-9ED4-4D25-AF35-6CE15AA529C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>lag</t>
   </si>
@@ -83,12 +83,20 @@
     <t>H5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>v18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>v20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +277,14 @@
       <b/>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -786,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,36 +821,82 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1268,7 @@
     <col min="11" max="11" width="8.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1234,27 +1296,36 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="40">
         <v>1</v>
       </c>
       <c r="C2" s="2">
@@ -1275,56 +1346,74 @@
       <c r="H2">
         <v>0.488188976377952</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="15">
         <f>AVERAGE(E2:H2)</f>
         <v>0.5089520059992495</v>
       </c>
       <c r="J2" s="7">
         <v>0.50074537053835955</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="11">
         <v>0.48679323350710157</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="20">
+        <v>0.47899657704077248</v>
+      </c>
+      <c r="M2">
+        <v>0.52066853538468927</v>
+      </c>
+      <c r="N2">
         <f>AVERAGE(I2,I11,I20,I29,I38,I47)</f>
         <v>0.50010268373711286</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <f>AVERAGE(J2,J11,J20,J29,J38,J47)</f>
         <v>0.50887599063557853</v>
       </c>
-      <c r="N2">
+      <c r="P2" s="19">
         <f>AVERAGE(K4,K13,K22,K31,K40,K49)</f>
         <v>0.51264404281454035</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
+        <f>AVERAGE(L4,L13,L22,L31,L40,L49)</f>
+        <v>0.5059796792874004</v>
+      </c>
+      <c r="R2">
         <f>AVERAGE(I5,I14,I23,I32,I41,I50)</f>
         <v>0.49456225565890238</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <f>AVERAGE(J7,J16,J25,J34,J43,J52)</f>
         <v>0.49976741818562959</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <f>AVERAGE(K7,K16,K25,K34,K43,K52)</f>
         <v>0.50068581817057767</v>
       </c>
-      <c r="R2">
+      <c r="U2" s="19">
+        <f>AVERAGE(L5,L14,L23,L32,L41,L50)</f>
+        <v>0.50450065549601941</v>
+      </c>
+      <c r="V2">
         <f>AVERAGE(I10,I19,I28,I37,I46,I55)</f>
         <v>0.52005499480575634</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <f>AVERAGE(J8,J17,J26,J35,J44,J53)</f>
         <v>0.52120648057433627</v>
       </c>
-      <c r="T2">
+      <c r="X2" s="19">
         <f>AVERAGE(K8,K17,K26,K35,K44,K53)</f>
         <v>0.53653336175719912</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="Y2">
+        <f>AVERAGE(L8,L17,L26,L35,L44,L53)</f>
+        <v>0.52630261775073761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3">
         <v>10</v>
       </c>
@@ -1343,20 +1432,26 @@
       <c r="H3">
         <v>0.45669291338582602</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I55" si="0">AVERAGE(E3:H3)</f>
         <v>0.51138264974942604</v>
       </c>
       <c r="J3" s="5">
         <v>0.50085624377597893</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="5">
         <v>0.51663552136628033</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="L3" s="21">
+        <v>0.49501700392289621</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.52868542641847127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4">
         <v>20</v>
       </c>
@@ -1375,20 +1470,26 @@
       <c r="H4">
         <v>0.49606299212598398</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>0.48912711515899204</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="5">
         <v>0.49709486918973805</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="18">
         <v>0.50703263906527773</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26">
+      <c r="L4" s="23">
+        <v>0.49884087069761379</v>
+      </c>
+      <c r="M4">
+        <v>0.52851054908458972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40">
         <v>3</v>
       </c>
       <c r="C5" s="2">
@@ -1409,20 +1510,26 @@
       <c r="H5">
         <v>0.55118110236220397</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>0.53478068265660283</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>0.51084315065455477</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>0.49687387866839172</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="L5" s="24">
+        <v>0.47282547342872405</v>
+      </c>
+      <c r="M5">
+        <v>0.46674432832992596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6">
         <v>10</v>
       </c>
@@ -1441,20 +1548,26 @@
       <c r="H6">
         <v>0.52755905511810997</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>0.48868059839294226</v>
       </c>
       <c r="J6" s="5">
         <v>0.5209222839080595</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="5">
         <v>0.50274587652349845</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="L6" s="25">
+        <v>0.48287184868020477</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0.50863500933351025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7">
         <v>20</v>
       </c>
@@ -1473,20 +1586,26 @@
       <c r="H7">
         <v>0.48031496062992102</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>0.47715759320407475</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="18">
         <v>0.50090538077901525</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="18">
         <v>0.50292075385738033</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26">
+      <c r="L7" s="21">
+        <v>0.50711302216255194</v>
+      </c>
+      <c r="M7">
+        <v>0.50885751176264193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40">
         <v>5</v>
       </c>
       <c r="C8" s="3">
@@ -1507,20 +1626,26 @@
       <c r="H8">
         <v>0.55118110236220397</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
         <v>0.49481012454088352</v>
       </c>
       <c r="J8" s="7">
         <v>0.52492480778612305</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="16">
         <v>0.56875577044804848</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="L8" s="24">
+        <v>0.50319314924344072</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0.53081394059613474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9">
         <v>10</v>
       </c>
@@ -1539,20 +1664,26 @@
       <c r="H9">
         <v>0.51968503937007804</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>0.50895351790703547</v>
       </c>
       <c r="J9" s="5">
         <v>0.48501749781277276</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="5">
         <v>0.50258813414452175</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="L9" s="21">
+        <v>0.51292328378307506</v>
+      </c>
+      <c r="M9">
+        <v>0.50674840040156222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2">
         <v>20</v>
       </c>
@@ -1571,22 +1702,28 @@
       <c r="H10">
         <v>0.58267716535433001</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>0.52873380746761456</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>0.4989391447036855</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="10">
         <v>0.51835254464159697</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="L10" s="26">
+        <v>0.52267130923150695</v>
+      </c>
+      <c r="M10">
+        <v>0.49668413424128405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="40">
         <v>1</v>
       </c>
       <c r="C11" s="2">
@@ -1614,13 +1751,19 @@
       <c r="J11" s="7">
         <v>0.48485748757211727</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="11">
         <v>0.49084187057262946</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="L11" s="20">
+        <v>0.47312684704734426</v>
+      </c>
+      <c r="M11">
+        <v>0.53119494135813627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12">
         <v>10</v>
       </c>
@@ -1639,20 +1782,26 @@
       <c r="H12">
         <v>0.535433070866141</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>0.53695606597562318</v>
       </c>
       <c r="J12" s="5">
         <v>0.47291921171143875</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="5">
         <v>0.51869851953989599</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="L12" s="21">
+        <v>0.49290184493067379</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0.53485955384609152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13">
         <v>20</v>
       </c>
@@ -1671,20 +1820,26 @@
       <c r="H13">
         <v>0.464566929133858</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <f t="shared" si="0"/>
         <v>0.48915760529933727</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>0.49103085904584476</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="17">
         <v>0.51085726179388824</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26">
+      <c r="L13" s="22">
+        <v>0.50110999229934927</v>
+      </c>
+      <c r="M13">
+        <v>0.54100470304115156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40">
         <v>3</v>
       </c>
       <c r="C14" s="2">
@@ -1709,16 +1864,22 @@
         <f t="shared" si="0"/>
         <v>0.46083730461111677</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="11">
         <v>0.46279094145489824</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="11">
         <v>0.47442557583527822</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="L14" s="24">
+        <v>0.43094436784111623</v>
+      </c>
+      <c r="M14">
+        <v>0.56921488644564522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15">
         <v>10</v>
       </c>
@@ -1737,20 +1898,26 @@
       <c r="H15">
         <v>0.55118110236220397</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>0.48444146094641349</v>
       </c>
       <c r="J15" s="5">
         <v>0.48314197620458676</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="5">
         <v>0.49479374553987177</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="L15" s="21">
+        <v>0.48514021432804699</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0.56315012034785927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16">
         <v>20</v>
       </c>
@@ -1769,20 +1936,26 @@
       <c r="H16">
         <v>0.47244094488188898</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>0.48107746612318575</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="12">
         <v>0.46936320459942449</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="17">
         <v>0.4910479940007495</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26">
+      <c r="L16" s="26">
+        <v>0.47323545242328524</v>
+      </c>
+      <c r="M16">
+        <v>0.52905307199503249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40">
         <v>5</v>
       </c>
       <c r="C17" s="3">
@@ -1803,20 +1976,26 @@
       <c r="H17">
         <v>0.45669291338582602</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>0.47682043776785898</v>
       </c>
       <c r="J17" s="7">
         <v>0.43904239792606525</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="7">
         <v>0.44909179699311724</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="L17" s="37">
+        <v>0.49298298398184026</v>
+      </c>
+      <c r="M17" s="19">
+        <v>0.62510910934520258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18">
         <v>10</v>
       </c>
@@ -1835,20 +2014,26 @@
       <c r="H18">
         <v>0.47244094488188898</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>0.43291438368590973</v>
       </c>
       <c r="J18" s="5">
         <v>0.49709789300530927</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="5">
         <v>0.50309714309904763</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="L18" s="21">
+        <v>0.47722008539255151</v>
+      </c>
+      <c r="M18">
+        <v>0.59317106531038422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="2">
         <v>20</v>
       </c>
@@ -1867,22 +2052,28 @@
       <c r="H19">
         <v>0.45669291338582602</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="39">
         <f t="shared" si="0"/>
         <v>0.47093206091174022</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>0.51898880583475426</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="10">
         <v>0.48906462297051528</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="L19" s="26">
+        <v>0.51678142046760256</v>
+      </c>
+      <c r="M19">
+        <v>0.55073786139635728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="40">
         <v>1</v>
       </c>
       <c r="C20" s="2">
@@ -1910,13 +2101,19 @@
       <c r="J20" s="7">
         <v>0.50107950215900376</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="11">
         <v>0.50284037076010601</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="L20" s="20">
+        <v>0.49304547617031674</v>
+      </c>
+      <c r="M20">
+        <v>0.50725211767883827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
       <c r="C21">
         <v>10</v>
       </c>
@@ -1935,20 +2132,26 @@
       <c r="H21">
         <v>0.43307086614173201</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <f t="shared" si="0"/>
         <v>0.5236543012768563</v>
       </c>
       <c r="J21" s="5">
         <v>0.52497092097358755</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="5">
         <v>0.49323748845910348</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="L21" s="21">
+        <v>0.47120445629780094</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0.50928613761989372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
       <c r="C22">
         <v>20</v>
       </c>
@@ -1967,20 +2170,26 @@
       <c r="H22">
         <v>0.41732283464566899</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="9">
         <f t="shared" si="0"/>
         <v>0.49539573682321925</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <v>0.50701701601815885</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="17">
         <v>0.52103466905346507</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26">
+      <c r="L22" s="22">
+        <v>0.52478193250037275</v>
+      </c>
+      <c r="M22">
+        <v>0.51530327862242975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40">
         <v>3</v>
       </c>
       <c r="C23" s="2">
@@ -2001,20 +2210,26 @@
       <c r="H23">
         <v>0.44881889763779498</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="38">
         <f t="shared" si="0"/>
         <v>0.49104497018517801</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="11">
         <v>0.52312740141353253</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="11">
         <v>0.51109538727013903</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="L23" s="37">
+        <v>0.50479400760388748</v>
+      </c>
+      <c r="M23">
+        <v>0.51106262926811497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24">
         <v>10</v>
       </c>
@@ -2033,20 +2248,26 @@
       <c r="H24">
         <v>0.47244094488188898</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f t="shared" si="0"/>
         <v>0.50306287318923804</v>
       </c>
       <c r="J24" s="5">
         <v>0.47710618833936025</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="5">
         <v>0.52460251944313385</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="L24" s="21">
+        <v>0.51301626611189644</v>
+      </c>
+      <c r="M24" s="19">
+        <v>0.51309513730138523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25">
         <v>20</v>
       </c>
@@ -2065,20 +2286,26 @@
       <c r="H25">
         <v>0.44881889763779498</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <f t="shared" si="0"/>
         <v>0.51335039773254099</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="12">
         <v>0.47702958501155079</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <v>0.48082371759981574</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26">
+      <c r="L25" s="26">
+        <v>0.48693610879285204</v>
+      </c>
+      <c r="M25">
+        <v>0.47091719381851427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40">
         <v>5</v>
       </c>
       <c r="C26" s="3">
@@ -2099,20 +2326,26 @@
       <c r="H26">
         <v>0.58267716535433001</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="13">
         <f t="shared" si="0"/>
         <v>0.542910714789683</v>
       </c>
       <c r="J26" s="7">
         <v>0.52477966463869374</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="16">
         <v>0.54286157778664701</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="L26" s="24">
+        <v>0.51479804943736829</v>
+      </c>
+      <c r="M26" s="19">
+        <v>0.49284010869609002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="C27">
         <v>10</v>
       </c>
@@ -2131,20 +2364,26 @@
       <c r="H27">
         <v>0.48031496062992102</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <f t="shared" si="0"/>
         <v>0.53712943140171943</v>
       </c>
       <c r="J27" s="5">
         <v>0.50103263301764644</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="5">
         <v>0.5129835081098727</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="L27" s="21">
+        <v>0.44910666408634348</v>
+      </c>
+      <c r="M27">
+        <v>0.46694742794247424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="2">
         <v>20</v>
       </c>
@@ -2163,22 +2402,28 @@
       <c r="H28">
         <v>0.511811023622047</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="14">
         <f t="shared" si="0"/>
         <v>0.52522618140474353</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <v>0.48228472449008353</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="10">
         <v>0.50279425757264173</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="L28" s="26">
+        <v>0.50263878305534349</v>
+      </c>
+      <c r="M28">
+        <v>0.48903186496849149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="40">
         <v>1</v>
       </c>
       <c r="C29" s="2">
@@ -2203,16 +2448,22 @@
         <f t="shared" si="0"/>
         <v>0.50314401224040495</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="16">
         <v>0.54482781386197643</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="11">
         <v>0.54460379952505877</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="L29" s="20">
+        <v>0.52300166108268675</v>
+      </c>
+      <c r="M29">
+        <v>0.52696991505094071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
       <c r="C30">
         <v>10</v>
       </c>
@@ -2231,20 +2482,26 @@
       <c r="H30">
         <v>0.45669291338582602</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <f t="shared" si="0"/>
         <v>0.51733503070180675</v>
       </c>
       <c r="J30" s="5">
         <v>0.550907447052989</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="5">
         <v>0.550766083675024</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="L30" s="21">
+        <v>0.53909869129262</v>
+      </c>
+      <c r="M30" s="19">
+        <v>0.54893969906987405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31">
         <v>20</v>
       </c>
@@ -2263,20 +2520,26 @@
       <c r="H31">
         <v>0.49606299212598398</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="9">
         <f t="shared" si="0"/>
         <v>0.53898630614721499</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="10">
         <v>0.54697195108675878</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="12">
         <v>0.53500242913184204</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26">
+      <c r="L31" s="22">
+        <v>0.51511353419532191</v>
+      </c>
+      <c r="M31">
+        <v>0.53308230624397701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40">
         <v>3</v>
       </c>
       <c r="C32" s="2">
@@ -2301,16 +2564,22 @@
         <f t="shared" si="0"/>
         <v>0.4910479940007495</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="11">
         <v>0.51668314646153057</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="11">
         <v>0.51493790090754721</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="L32" s="37">
+        <v>0.54457482129249923</v>
+      </c>
+      <c r="M32">
+        <v>0.51852288625212117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
       <c r="C33">
         <v>10</v>
       </c>
@@ -2329,20 +2598,26 @@
       <c r="H33">
         <v>0.47244094488188898</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <f t="shared" si="0"/>
         <v>0.48712585321995971</v>
       </c>
       <c r="J33" s="5">
         <v>0.48263221129616801</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="5">
         <v>0.51093840084505526</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="L33" s="21">
+        <v>0.51449062818760527</v>
+      </c>
+      <c r="M33" s="19">
+        <v>0.52898680003709142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
       <c r="C34">
         <v>20</v>
       </c>
@@ -2361,20 +2636,26 @@
       <c r="H34">
         <v>0.535433070866141</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="9">
         <f t="shared" si="0"/>
         <v>0.50280988061976095</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="36">
         <v>0.5309240578798613</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <v>0.52879781156387651</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26">
+      <c r="L34" s="26">
+        <v>0.50487439070116202</v>
+      </c>
+      <c r="M34">
+        <v>0.55470233559514726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40">
         <v>5</v>
       </c>
       <c r="C35" s="3">
@@ -2395,20 +2676,26 @@
       <c r="H35">
         <v>0.52755905511810997</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="13">
         <f t="shared" si="0"/>
         <v>0.54919647140881533</v>
       </c>
       <c r="J35" s="7">
         <v>0.56096062588950546</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="16">
         <v>0.59489917590946251</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
+      <c r="L35" s="24">
+        <v>0.5649445029048783</v>
+      </c>
+      <c r="M35" s="19">
+        <v>0.57108662828436729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
       <c r="C36">
         <v>10</v>
       </c>
@@ -2427,20 +2714,26 @@
       <c r="H36">
         <v>0.488188976377952</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <f t="shared" si="0"/>
         <v>0.5512267115804067</v>
       </c>
       <c r="J36" s="5">
         <v>0.51481064866891568</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="5">
         <v>0.56302211215533504</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="L36" s="21">
+        <v>0.53489155589422244</v>
+      </c>
+      <c r="M36">
+        <v>0.61480369389310174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="2">
         <v>20</v>
       </c>
@@ -2459,22 +2752,28 @@
       <c r="H37">
         <v>0.511811023622047</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="14">
         <f t="shared" si="0"/>
         <v>0.53911507029363226</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="10">
         <v>0.53068593240361028</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="10">
         <v>0.51295377392342023</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="L37" s="26">
+        <v>0.52709867919735798</v>
+      </c>
+      <c r="M37">
+        <v>0.61718444468634903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="40">
         <v>1</v>
       </c>
       <c r="C38" s="2">
@@ -2495,20 +2794,26 @@
       <c r="H38">
         <v>0.50393700787401496</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="15">
         <f t="shared" si="0"/>
         <v>0.52508179421120671</v>
       </c>
       <c r="J38" s="7">
         <v>0.49088647185230827</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="11">
         <v>0.48494971394704622</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
+      <c r="L38" s="20">
+        <v>0.50931965157581072</v>
+      </c>
+      <c r="M38">
+        <v>0.51919266140119502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39">
         <v>10</v>
       </c>
@@ -2527,20 +2832,26 @@
       <c r="H39">
         <v>0.41732283464566899</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <f t="shared" si="0"/>
         <v>0.51978129749910251</v>
       </c>
       <c r="J39" s="5">
         <v>0.49117297837770224</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="5">
         <v>0.53490717894134154</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
+      <c r="L39" s="21">
+        <v>0.49112762114413067</v>
+      </c>
+      <c r="M39" s="19">
+        <v>0.53316193338735818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
       <c r="C40">
         <v>20</v>
       </c>
@@ -2559,20 +2870,26 @@
       <c r="H40">
         <v>0.48031496062992102</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="9">
         <f t="shared" si="0"/>
         <v>0.48519010728497602</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="10">
         <v>0.5031916373356552</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <v>0.495111498159504</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26">
+      <c r="L40" s="22">
+        <v>0.49895249988912621</v>
+      </c>
+      <c r="M40">
+        <v>0.53284342481383318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40">
         <v>3</v>
       </c>
       <c r="C41" s="2">
@@ -2593,20 +2910,26 @@
       <c r="H41">
         <v>0.559055118110236</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="38">
         <f t="shared" si="0"/>
         <v>0.52266828541593557</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="11">
         <v>0.54694070499252057</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="11">
         <v>0.54078220061201976</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
+      <c r="L41" s="37">
+        <v>0.55275247852082976</v>
+      </c>
+      <c r="M41">
+        <v>0.54101805822659221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
       <c r="C42">
         <v>10</v>
       </c>
@@ -2625,20 +2948,26 @@
       <c r="H42">
         <v>0.44881889763779498</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <f t="shared" si="0"/>
         <v>0.49494922005716974</v>
       </c>
       <c r="J42" s="5">
         <v>0.49907748426607901</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="5">
         <v>0.50490261297982875</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
+      <c r="L42" s="21">
+        <v>0.48720396845555525</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0.50900038704839268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43">
         <v>20</v>
       </c>
@@ -2657,20 +2986,26 @@
       <c r="H43">
         <v>0.43307086614173201</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="9">
         <f t="shared" si="0"/>
         <v>0.49914073240844853</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="12">
         <v>0.51925590954356449</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="12">
         <v>0.50941490176631099</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26">
+      <c r="L43" s="26">
+        <v>0.53493918098947257</v>
+      </c>
+      <c r="M43">
+        <v>0.47718657143663451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40">
         <v>5</v>
       </c>
       <c r="C44" s="3">
@@ -2691,20 +3026,26 @@
       <c r="H44">
         <v>0.62992125984251901</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="27">
         <f>AVERAGE(E44:H44)</f>
         <v>0.51843141583108499</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="28">
         <v>0.52440093173837099</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="28">
         <v>0.53249518205385549</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="L44" s="35">
+        <v>0.57088050485624731</v>
+      </c>
+      <c r="M44" s="19">
+        <v>0.53894094891364319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45">
         <v>10</v>
       </c>
@@ -2723,20 +3064,26 @@
       <c r="H45">
         <v>0.52755905511810997</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="29">
         <f t="shared" si="0"/>
         <v>0.48896861682612197</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="30">
         <v>0.56056173421870603</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="30">
         <v>0.54656046018441173</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
+      <c r="L45" s="31">
+        <v>0.54319646536118427</v>
+      </c>
+      <c r="M45">
+        <v>0.49884389451318523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="2">
         <v>20</v>
       </c>
@@ -2755,22 +3102,28 @@
       <c r="H46">
         <v>0.55118110236220397</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="34">
         <f t="shared" si="0"/>
         <v>0.53705282807390975</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="32">
         <v>0.55481698860223072</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="32">
         <v>0.51484340667093975</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
+      <c r="L46" s="33">
+        <v>0.55484974660425446</v>
+      </c>
+      <c r="M46">
+        <v>0.5247343074051225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="40">
         <v>1</v>
       </c>
       <c r="C47" s="2">
@@ -2795,16 +3148,22 @@
         <f t="shared" si="0"/>
         <v>0.49099961295160621</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="16">
         <v>0.5308592978297062</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="11">
         <v>0.52103391309957181</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
+      <c r="L47" s="20">
+        <v>0.52084416867246397</v>
+      </c>
+      <c r="M47">
+        <v>0.50704675020461099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
       <c r="C48">
         <v>10</v>
       </c>
@@ -2823,20 +3182,26 @@
       <c r="H48">
         <v>0.464566929133858</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <f t="shared" si="0"/>
         <v>0.54330507073712531</v>
       </c>
       <c r="J48" s="5">
         <v>0.51884290673343192</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="5">
         <v>0.49472822953582379</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="L48" s="21">
+        <v>0.49911175417588899</v>
+      </c>
+      <c r="M48" s="19">
+        <v>0.50061963020751399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
       <c r="C49">
         <v>20</v>
       </c>
@@ -2855,20 +3220,26 @@
       <c r="H49">
         <v>0.464566929133858</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="9">
         <f t="shared" si="0"/>
         <v>0.47728484544270655</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="10">
         <v>0.50879426362027247</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="12">
         <v>0.50682575968326504</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26">
+      <c r="L49" s="22">
+        <v>0.49707924614261867</v>
+      </c>
+      <c r="M49">
+        <v>0.48109384512419778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40">
         <v>3</v>
       </c>
       <c r="C50" s="2">
@@ -2893,16 +3264,22 @@
         <f t="shared" si="0"/>
         <v>0.46699429708383156</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="11">
         <v>0.49306109921743624</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="11">
         <v>0.50909563723889295</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
+      <c r="L50" s="37">
+        <v>0.52111278428906005</v>
+      </c>
+      <c r="M50">
+        <v>0.5492902096915302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
       <c r="C51">
         <v>10</v>
       </c>
@@ -2921,20 +3298,26 @@
       <c r="H51">
         <v>0.45669291338582602</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <f t="shared" si="0"/>
         <v>0.48104470812116173</v>
       </c>
       <c r="J51" s="5">
         <v>0.51104700622099597</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="5">
         <v>0.53668518249734876</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
+      <c r="L51" s="21">
+        <v>0.51909741121069475</v>
+      </c>
+      <c r="M51" s="19">
+        <v>0.52884316879744819</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
       <c r="C52">
         <v>20</v>
       </c>
@@ -2953,20 +3336,26 @@
       <c r="H52">
         <v>0.40157480314960597</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="9">
         <f t="shared" si="0"/>
         <v>0.47520168849861455</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="36">
         <v>0.5011263713003612</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="12">
         <v>0.491109730235333</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26">
+      <c r="L52" s="26">
+        <v>0.54254306921312234</v>
+      </c>
+      <c r="M52">
+        <v>0.5054295128431523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40">
         <v>5</v>
       </c>
       <c r="C53" s="3">
@@ -2987,20 +3376,26 @@
       <c r="H53">
         <v>0.511811023622047</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="13">
         <f t="shared" si="0"/>
         <v>0.52906642718047303</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="16">
         <v>0.55313045546726003</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="7">
         <v>0.53109666735206418</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
+      <c r="L53" s="24">
+        <v>0.51101651608065068</v>
+      </c>
+      <c r="M53" s="19">
+        <v>0.5213821558595495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
       <c r="C54">
         <v>10</v>
       </c>
@@ -3019,20 +3414,26 @@
       <c r="H54">
         <v>0.44881889763779498</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <f t="shared" si="0"/>
         <v>0.50912612737923824</v>
       </c>
       <c r="J54" s="5">
         <v>0.55916548737859317</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="5">
         <v>0.57910276336425648</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
+      <c r="L54" s="21">
+        <v>0.52733529276582303</v>
+      </c>
+      <c r="M54">
+        <v>0.5370966733996958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="2">
         <v>20</v>
       </c>
@@ -3051,22 +3452,25 @@
       <c r="H55">
         <v>0.43307086614173201</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="14">
         <f t="shared" si="0"/>
         <v>0.51927002068289796</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="10">
         <v>0.57099062213997398</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="10">
         <v>0.52297117094234147</v>
+      </c>
+      <c r="L55" s="26">
+        <v>0.54694146094641316</v>
+      </c>
+      <c r="M55">
+        <v>0.52690515500078572</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A29:A37"/>
@@ -3080,8 +3484,6 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B4"/>
@@ -3091,6 +3493,11 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/comparison_different_version.xlsx
+++ b/Results/comparison_different_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Next++\4E\Wanying\4EBaseMetal\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946E213-9ED4-4D25-AF35-6CE15AA529C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2FEEF-E0D7-4AE5-8F41-321D30D4B6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-1630" yWindow="790" windowWidth="12590" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_v14_res" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>lag</t>
   </si>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>v18</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>v20</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,6 +895,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1255,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1267,7 @@
     <col min="11" max="11" width="8.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1298,9 +1297,6 @@
       </c>
       <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>11</v>
@@ -1308,20 +1304,23 @@
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="40"/>
+      <c r="S1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="40"/>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
       <c r="Y1" s="40"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>0.47899657704077248</v>
       </c>
       <c r="M2">
-        <v>0.52066853538468927</v>
+        <v>0.50247499304522358</v>
       </c>
       <c r="N2">
         <f>AVERAGE(I2,I11,I20,I29,I38,I47)</f>
@@ -1379,39 +1378,48 @@
         <v>0.5059796792874004</v>
       </c>
       <c r="R2">
+        <v>0.50177224990693325</v>
+      </c>
+      <c r="S2">
         <f>AVERAGE(I5,I14,I23,I32,I41,I50)</f>
         <v>0.49456225565890238</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <f>AVERAGE(J7,J16,J25,J34,J43,J52)</f>
         <v>0.49976741818562959</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <f>AVERAGE(K7,K16,K25,K34,K43,K52)</f>
         <v>0.50068581817057767</v>
       </c>
-      <c r="U2" s="19">
+      <c r="V2" s="41">
         <f>AVERAGE(L5,L14,L23,L32,L41,L50)</f>
         <v>0.50450065549601941</v>
       </c>
-      <c r="V2">
+      <c r="W2" s="19">
+        <v>0.51321537596778832</v>
+      </c>
+      <c r="X2">
         <f>AVERAGE(I10,I19,I28,I37,I46,I55)</f>
         <v>0.52005499480575634</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <f>AVERAGE(J8,J17,J26,J35,J44,J53)</f>
         <v>0.52120648057433627</v>
       </c>
-      <c r="X2" s="19">
+      <c r="Z2" s="19">
         <f>AVERAGE(K8,K17,K26,K35,K44,K53)</f>
         <v>0.53653336175719912</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <f>AVERAGE(L8,L17,L26,L35,L44,L53)</f>
         <v>0.52630261775073761</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB2">
+        <v>0.511885695067686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3">
@@ -1446,10 +1454,10 @@
         <v>0.49501700392289621</v>
       </c>
       <c r="M3" s="19">
-        <v>0.52868542641847127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.48685572569557828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4">
@@ -1484,10 +1492,10 @@
         <v>0.49884087069761379</v>
       </c>
       <c r="M4">
-        <v>0.52851054908458972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.4990641290806388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="40">
         <v>3</v>
@@ -1524,10 +1532,10 @@
         <v>0.47282547342872405</v>
       </c>
       <c r="M5">
-        <v>0.46674432832992596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.51892177792292049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6">
@@ -1561,11 +1569,11 @@
       <c r="L6" s="25">
         <v>0.48287184868020477</v>
       </c>
-      <c r="M6" s="19">
-        <v>0.50863500933351025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <v>0.51497065890957128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7">
@@ -1599,11 +1607,11 @@
       <c r="L7" s="21">
         <v>0.50711302216255194</v>
       </c>
-      <c r="M7">
-        <v>0.50885751176264193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M7" s="19">
+        <v>0.52687617676822596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="40">
         <v>5</v>
@@ -1640,10 +1648,10 @@
         <v>0.50319314924344072</v>
       </c>
       <c r="M8" s="19">
-        <v>0.53081394059613474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.51697343275638907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9">
@@ -1678,10 +1686,10 @@
         <v>0.51292328378307506</v>
       </c>
       <c r="M9">
-        <v>0.50674840040156222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.47271308828331904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="2">
@@ -1716,10 +1724,10 @@
         <v>0.52267130923150695</v>
       </c>
       <c r="M10">
-        <v>0.49668413424128405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.5350545899504493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>2</v>
       </c>
@@ -1758,10 +1766,10 @@
         <v>0.47312684704734426</v>
       </c>
       <c r="M11">
-        <v>0.53119494135813627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.49495299982663399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12">
@@ -1796,10 +1804,10 @@
         <v>0.49290184493067379</v>
       </c>
       <c r="M12" s="19">
-        <v>0.53485955384609152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.48712509726606679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13">
@@ -1834,10 +1842,10 @@
         <v>0.50110999229934927</v>
       </c>
       <c r="M13">
-        <v>0.54100470304115156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.51865240635243126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="40">
         <v>3</v>
@@ -1874,10 +1882,10 @@
         <v>0.43094436784111623</v>
       </c>
       <c r="M14">
-        <v>0.56921488644564522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.45245654777023803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15">
@@ -1911,11 +1919,11 @@
       <c r="L15" s="21">
         <v>0.48514021432804699</v>
       </c>
-      <c r="M15" s="19">
-        <v>0.56315012034785927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <v>0.49133374457225076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16">
@@ -1949,8 +1957,8 @@
       <c r="L16" s="26">
         <v>0.47323545242328524</v>
       </c>
-      <c r="M16">
-        <v>0.52905307199503249</v>
+      <c r="M16" s="19">
+        <v>0.5127640294963125</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1990,7 +1998,7 @@
         <v>0.49298298398184026</v>
       </c>
       <c r="M17" s="19">
-        <v>0.62510910934520258</v>
+        <v>0.48452108808979477</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2028,7 +2036,7 @@
         <v>0.47722008539255151</v>
       </c>
       <c r="M18">
-        <v>0.59317106531038422</v>
+        <v>0.50085926759155053</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2066,7 +2074,7 @@
         <v>0.51678142046760256</v>
       </c>
       <c r="M19">
-        <v>0.55073786139635728</v>
+        <v>0.532846448629405</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2108,7 +2116,7 @@
         <v>0.49304547617031674</v>
       </c>
       <c r="M20">
-        <v>0.50725211767883827</v>
+        <v>0.50890438090399948</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2146,7 +2154,7 @@
         <v>0.47120445629780094</v>
       </c>
       <c r="M21" s="19">
-        <v>0.50928613761989372</v>
+        <v>0.46731356161124976</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2184,7 +2192,7 @@
         <v>0.52478193250037275</v>
       </c>
       <c r="M22">
-        <v>0.51530327862242975</v>
+        <v>0.49128460756921477</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2224,7 +2232,7 @@
         <v>0.50479400760388748</v>
       </c>
       <c r="M23">
-        <v>0.51106262926811497</v>
+        <v>0.50316039124141698</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2261,8 +2269,8 @@
       <c r="L24" s="21">
         <v>0.51301626611189644</v>
       </c>
-      <c r="M24" s="19">
-        <v>0.51309513730138523</v>
+      <c r="M24">
+        <v>0.48744360583959201</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2299,8 +2307,8 @@
       <c r="L25" s="26">
         <v>0.48693610879285204</v>
       </c>
-      <c r="M25">
-        <v>0.47091719381851427</v>
+      <c r="M25" s="19">
+        <v>0.48882271772480002</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2340,7 +2348,7 @@
         <v>0.51479804943736829</v>
       </c>
       <c r="M26" s="19">
-        <v>0.49284010869609002</v>
+        <v>0.47699758296341954</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2378,7 +2386,7 @@
         <v>0.44910666408634348</v>
       </c>
       <c r="M27">
-        <v>0.46694742794247424</v>
+        <v>0.50698501397002782</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2416,7 +2424,7 @@
         <v>0.50263878305534349</v>
       </c>
       <c r="M28">
-        <v>0.48903186496849149</v>
+        <v>0.43075613532179402</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2458,7 +2466,7 @@
         <v>0.52300166108268675</v>
       </c>
       <c r="M29">
-        <v>0.52696991505094071</v>
+        <v>0.54690794699049672</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2496,7 +2504,7 @@
         <v>0.53909869129262</v>
       </c>
       <c r="M30" s="19">
-        <v>0.54893969906987405</v>
+        <v>0.54317781849849367</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2534,7 +2542,7 @@
         <v>0.51511353419532191</v>
       </c>
       <c r="M31">
-        <v>0.53308230624397701</v>
+        <v>0.52711505819837001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2574,7 +2582,7 @@
         <v>0.54457482129249923</v>
       </c>
       <c r="M32">
-        <v>0.51852288625212117</v>
+        <v>0.51865240635243126</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2611,8 +2619,8 @@
       <c r="L33" s="21">
         <v>0.51449062818760527</v>
       </c>
-      <c r="M33" s="19">
-        <v>0.52898680003709142</v>
+      <c r="M33">
+        <v>0.51500190500380971</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2649,8 +2657,8 @@
       <c r="L34" s="26">
         <v>0.50487439070116202</v>
       </c>
-      <c r="M34">
-        <v>0.55470233559514726</v>
+      <c r="M34" s="19">
+        <v>0.5308288076893608</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2690,7 +2698,7 @@
         <v>0.5649445029048783</v>
       </c>
       <c r="M35" s="19">
-        <v>0.57108662828436729</v>
+        <v>0.56267311344146453</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2728,7 +2736,7 @@
         <v>0.53489155589422244</v>
       </c>
       <c r="M36">
-        <v>0.61480369389310174</v>
+        <v>0.54679934161455579</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2766,7 +2774,7 @@
         <v>0.52709867919735798</v>
       </c>
       <c r="M37">
-        <v>0.61718444468634903</v>
+        <v>0.51092202184404356</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2808,7 +2816,7 @@
         <v>0.50931965157581072</v>
       </c>
       <c r="M38">
-        <v>0.51919266140119502</v>
+        <v>0.53505081018098499</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2846,7 +2854,7 @@
         <v>0.49112762114413067</v>
       </c>
       <c r="M39" s="19">
-        <v>0.53316193338735818</v>
+        <v>0.5112085283694372</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2884,7 +2892,7 @@
         <v>0.49895249988912621</v>
       </c>
       <c r="M40">
-        <v>0.53284342481383318</v>
+        <v>0.49706362309550001</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2924,7 +2932,7 @@
         <v>0.55275247852082976</v>
       </c>
       <c r="M41">
-        <v>0.54101805822659221</v>
+        <v>0.54473331962536897</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2961,8 +2969,8 @@
       <c r="L42" s="21">
         <v>0.48720396845555525</v>
       </c>
-      <c r="M42" s="19">
-        <v>0.50900038704839268</v>
+      <c r="M42">
+        <v>0.52265341832270906</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2999,8 +3007,8 @@
       <c r="L43" s="26">
         <v>0.53493918098947257</v>
       </c>
-      <c r="M43">
-        <v>0.47718657143663451</v>
+      <c r="M43" s="19">
+        <v>0.52077865266841594</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -3040,7 +3048,7 @@
         <v>0.57088050485624731</v>
       </c>
       <c r="M44" s="19">
-        <v>0.53894094891364319</v>
+        <v>0.49287362265200674</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -3078,7 +3086,7 @@
         <v>0.54319646536118427</v>
       </c>
       <c r="M45">
-        <v>0.49884389451318523</v>
+        <v>0.54871946450242071</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3116,7 +3124,7 @@
         <v>0.55484974660425446</v>
       </c>
       <c r="M46">
-        <v>0.5247343074051225</v>
+        <v>0.50285901762279683</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -3158,7 +3166,7 @@
         <v>0.52084416867246397</v>
       </c>
       <c r="M47">
-        <v>0.50704675020461099</v>
+        <v>0.50707875225274224</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -3196,7 +3204,7 @@
         <v>0.49911175417588899</v>
       </c>
       <c r="M48" s="19">
-        <v>0.50061963020751399</v>
+        <v>0.51495276800077372</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3234,7 +3242,7 @@
         <v>0.49707924614261867</v>
       </c>
       <c r="M49">
-        <v>0.48109384512419778</v>
+        <v>0.5169368949849007</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -3274,7 +3282,7 @@
         <v>0.52111278428906005</v>
       </c>
       <c r="M50">
-        <v>0.5492902096915302</v>
+        <v>0.51695251803201947</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -3311,8 +3319,8 @@
       <c r="L51" s="21">
         <v>0.51909741121069475</v>
       </c>
-      <c r="M51" s="19">
-        <v>0.52884316879744819</v>
+      <c r="M51">
+        <v>0.52085752385790418</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3349,8 +3357,8 @@
       <c r="L52" s="26">
         <v>0.54254306921312234</v>
       </c>
-      <c r="M52">
-        <v>0.5054295128431523</v>
+      <c r="M52" s="19">
+        <v>0.49922187145961527</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -3390,7 +3398,7 @@
         <v>0.51101651608065068</v>
       </c>
       <c r="M53" s="19">
-        <v>0.5213821558595495</v>
+        <v>0.53727533050304155</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3428,7 +3436,7 @@
         <v>0.52733529276582303</v>
       </c>
       <c r="M54">
-        <v>0.5370966733996958</v>
+        <v>0.55086133386552449</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3466,11 +3474,24 @@
         <v>0.54694146094641316</v>
       </c>
       <c r="M55">
-        <v>0.52690515500078572</v>
+        <v>0.56868874253621504</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A29:A37"/>
@@ -3485,19 +3506,6 @@
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
